--- a/data/trans_dic/CONS_ALER-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_ALER-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -562,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>8,69%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>8,27%</t>
         </is>
       </c>
     </row>
@@ -685,54 +686,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,99; 5,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,01; 12,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,46; 9,42</t>
+          <t>5,1; 11,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,93; 4,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,09; 9,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,58; 7,24</t>
+          <t>5,5; 12,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,3; 3,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,61; 8,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,03; 7,42</t>
+          <t>6,05; 10,99</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,76%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,8%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>6,61%</t>
         </is>
       </c>
     </row>
@@ -795,54 +796,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,25; 4,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,88; 12,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,5; 12,0</t>
+          <t>4,14; 10,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,65; 7,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,8; 61,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,42; 5,85</t>
+          <t>4,1; 9,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,38; 5,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,07; 46,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,42; 7,75</t>
+          <t>4,95; 9,12</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>22,58%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>11,8%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>5,84%</t>
         </is>
       </c>
     </row>
@@ -905,54 +906,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>1,38; 4,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,52; 7,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,39; 5,7</t>
+          <t>3,96; 9,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 58,17</t>
+          <t>2,37; 5,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,26; 8,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,91; 5,94</t>
+          <t>3,68; 8,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,65</t>
+          <t>2,24; 4,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,91; 7,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,01; 4,95</t>
+          <t>4,29; 7,75</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>4,5%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1016,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,9; 10,99</t>
+          <t>2,58; 5,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,58; 7,66</t>
+          <t>0,71; 4,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,29; 4,36</t>
+          <t>1,26; 4,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,3; 11,98</t>
+          <t>4,44; 8,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,26; 7,05</t>
+          <t>4,21; 7,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,85; 3,43</t>
+          <t>4,38; 9,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,96; 10,27</t>
+          <t>3,91; 6,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,01; 6,18</t>
+          <t>1,83; 5,65</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,24; 3,15</t>
+          <t>3,21; 5,97</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>7,55%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>5,32%</t>
         </is>
       </c>
     </row>
@@ -1125,54 +1126,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,34; 10,41</t>
+          <t>1,69; 4,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,85; 8,04</t>
+          <t>0,42; 2,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,94</t>
+          <t>1,33; 4,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,72; 10,57</t>
+          <t>2,71; 5,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,65; 19,61</t>
+          <t>3,36; 7,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,09; 7,18</t>
+          <t>5,54; 10,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,08; 9,2</t>
+          <t>2,52; 4,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,15; 13,39</t>
+          <t>2,12; 4,28</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,38; 5,07</t>
+          <t>3,76; 6,91</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1182,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>4,1%</t>
         </is>
       </c>
     </row>
@@ -1235,54 +1236,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,4; 9,72</t>
+          <t>2,82; 6,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,23; 5,67</t>
+          <t>1,22; 4,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,64; 4,66</t>
+          <t>2,39; 5,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,9; 8,66</t>
+          <t>2,69; 6,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,59; 6,86</t>
+          <t>0,72; 5,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,48; 5,75</t>
+          <t>2,89; 6,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,63; 8,31</t>
+          <t>3,19; 5,56</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,37; 5,53</t>
+          <t>0,82; 4,27</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,43; 4,54</t>
+          <t>3,1; 5,39</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1292,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>5,22%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>4,45%</t>
         </is>
       </c>
     </row>
@@ -1345,54 +1346,54 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,48; 4,27</t>
+          <t>1,54; 4,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,7; 6,39</t>
+          <t>0,79; 4,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,58; 5,25</t>
+          <t>2,11; 5,61</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,59; 9,17</t>
+          <t>2,12; 5,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,76; 7,77</t>
+          <t>2,35; 5,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,92; 7,13</t>
+          <t>3,44; 7,57</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,3; 6,02</t>
+          <t>2,14; 4,14</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,18; 6,47</t>
+          <t>1,96; 4,58</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,66; 5,77</t>
+          <t>3,22; 6,04</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1402,47 +1403,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>5,49%</t>
         </is>
       </c>
     </row>
@@ -1455,398 +1456,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,31; 4,89</t>
+          <t>2,58; 3,74</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,89; 2,88</t>
+          <t>2,01; 4,38</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,22; 4,49</t>
+          <t>3,77; 5,42</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,72; 10,72</t>
+          <t>3,51; 4,86</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,25; 5,96</t>
+          <t>4,2; 17,38</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,58; 4,95</t>
+          <t>5,45; 7,41</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,99; 7,28</t>
+          <t>3,26; 4,16</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2,27; 3,99</t>
+          <t>3,62; 10,97</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2,61; 4,32</t>
+          <t>4,91; 6,17</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>4,1%</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>1,87%</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>3,84%</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>5,11%</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>3,29%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>4,62%</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>4,56%</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>2,7%</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>4,24%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>2,68; 6,35</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>1,0; 3,26</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>2,7; 5,53</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>3,38; 7,38</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>1,59; 4,79</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>3,21; 6,21</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>3,41; 6,05</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>1,71; 3,68</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>3,31; 5,38</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>3,54%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>2,35%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>2,66%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>5,66%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>2,83%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>3,36%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>4,66%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>2,64%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>3,07%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>2,06; 5,52</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>1,17; 4,15</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>1,64; 4,18</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>3,85; 7,98</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>1,83; 4,16</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>2,31; 4,72</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>3,45; 6,05</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>1,82; 3,62</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>2,3; 4,08</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>4,54%</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>3,36%</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>3,39%</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>6,55%</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>5,05%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>3,92%</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>5,55%</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>4,26%</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>3,66%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>3,8; 5,38</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>2,74; 4,19</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>2,9; 3,9</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>5,67; 7,41</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>4,21; 6,43</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>3,41; 4,49</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>4,97; 6,16</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>3,75; 5,02</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>3,32; 4,03</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="12">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
@@ -1856,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo de medicamentos para la alergía o el asma</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16/24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1535</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>12876</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>13344</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1394</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3792</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>14812</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2929</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>16668</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>28156</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>619; 3222</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4740; 29743</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>8674; 20316</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>583; 2907</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>175; 16888</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>9381; 21526</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1630; 4817</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>6790; 37271</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>20595; 37420</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25/34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1840</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>12646</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>12110</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2991</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>84149</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>13896</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4831</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>96795</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>26005</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>862; 3454</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>6607; 27839</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>7547; 18884</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1655; 4864</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>15097; 193731</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>8669; 21036</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3138; 6953</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>27562; 252474</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>19474; 35919</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35/44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2551</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>14466</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>15231</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3663</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>19661</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>13768</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>6215</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>34127</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>28999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1304; 4333</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7839; 22546</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>9840; 23098</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2309; 5685</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>13737; 27392</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>9148; 22125</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4308; 8802</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>24756; 46569</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>21327; 38497</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45/54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>5337</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>15753</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>7120</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>8414</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>23597</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>18771</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>13751</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>39350</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>25891</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>3595; 7685</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4484; 29965</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>3753; 12521</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>6121; 11502</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>17043; 31478</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>12223; 26525</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>10860; 17398</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>18902; 58276</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>18510; 34379</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55/64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>3598</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>4148</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>6151</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>5912</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>16031</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>19839</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>9510</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>20179</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>25989</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2140; 5633</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1434; 8901</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3130; 11246</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3991; 8356</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>10702; 23382</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>14076; 27029</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>6921; 12452</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>13968; 28146</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>18371; 33762</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65/74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>4658</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>5803</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>6962</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>4575</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>11645</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>8313</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>9232</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>17449</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>15275</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>3032; 6795</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2543; 10220</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>4405; 10445</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>3093; 6892</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>3246; 23606</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>5447; 12347</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>7088; 12368</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>5398; 28234</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>11556; 20081</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 y más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2519</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>3048</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>4880</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>4337</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>8888</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>11061</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>6856</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>11937</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>15941</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1485; 4040</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1196; 7077</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>3089; 8221</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>2835; 6707</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>5471; 13874</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>7282; 16031</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>4920; 9539</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>7524; 17631</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>11551; 21644</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>22038</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>68740</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>65798</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>31286</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>167764</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>100458</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>53324</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>236505</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>166256</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>17958; 26082</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>42196; 92100</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>55148; 79349</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>26540; 36773</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>93606; 387848</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>85317; 115918</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>47313; 60407</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>156701; 475281</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>148693; 186762</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/CONS_ALER-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_ALER-Edad-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la alergía o el asma</t>
+          <t>Consumo de medicamentos para la alergía o el asma (tasa de respuesta: 99,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1559,7 +1559,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la alergía o el asma</t>
+          <t>Consumo de medicamentos para la alergía o el asma (tasa de respuesta: 99,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/CONS_ALER-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_ALER-Edad-trans_dic.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,99; 5,13</t>
+          <t>0,97; 4,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,01; 12,59</t>
+          <t>1,84; 13,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 4,65</t>
+          <t>0,92; 4,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,09; 9,16</t>
+          <t>0,1; 8,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,3; 3,84</t>
+          <t>1,23; 3,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,61; 8,86</t>
+          <t>1,82; 8,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,25; 4,99</t>
+          <t>1,2; 4,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,88; 12,14</t>
+          <t>2,66; 12,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,65; 7,78</t>
+          <t>2,54; 6,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,8; 61,61</t>
+          <t>4,98; 62,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,38; 5,28</t>
+          <t>2,21; 4,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,07; 46,43</t>
+          <t>4,98; 45,33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,38; 4,58</t>
+          <t>1,46; 4,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,52; 7,26</t>
+          <t>2,52; 7,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,37; 5,83</t>
+          <t>2,18; 5,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,26; 8,49</t>
+          <t>4,24; 8,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,24; 4,58</t>
+          <t>2,12; 4,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,91; 7,35</t>
+          <t>3,89; 7,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,58; 5,51</t>
+          <t>2,47; 5,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,71; 4,78</t>
+          <t>0,64; 4,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,44; 8,34</t>
+          <t>3,7; 7,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,21; 7,78</t>
+          <t>4,2; 7,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,91; 6,27</t>
+          <t>3,54; 5,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,83; 5,65</t>
+          <t>1,87; 5,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,69; 4,44</t>
+          <t>1,65; 4,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,62</t>
+          <t>0,48; 2,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1141,12 +1141,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,71; 5,67</t>
+          <t>2,67; 5,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,36; 7,33</t>
+          <t>3,38; 7,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,52; 4,54</t>
+          <t>2,53; 4,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,12; 4,28</t>
+          <t>2,11; 4,21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,82; 6,32</t>
+          <t>2,48; 5,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,22; 4,91</t>
+          <t>1,27; 5,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,69; 6,0</t>
+          <t>2,55; 5,54</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,72; 5,22</t>
+          <t>0,6; 5,36</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1266,12 +1266,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,19; 5,56</t>
+          <t>2,9; 4,96</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,82; 4,27</t>
+          <t>0,96; 4,39</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,54; 4,19</t>
+          <t>2,01; 5,16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,79; 4,68</t>
+          <t>0,79; 4,41</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,12; 5,01</t>
+          <t>2,67; 5,59</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,35; 5,95</t>
+          <t>2,29; 5,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,14; 4,14</t>
+          <t>2,74; 5,03</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,96; 4,58</t>
+          <t>1,9; 4,56</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1456,12 +1456,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,58; 3,74</t>
+          <t>2,52; 3,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,01; 4,38</t>
+          <t>2,18; 4,52</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,51; 4,86</t>
+          <t>3,31; 4,59</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,2; 17,38</t>
+          <t>4,14; 17,1</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1486,12 +1486,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,26; 4,16</t>
+          <t>3,11; 3,92</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>3,62; 10,97</t>
+          <t>3,62; 10,49</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>1588</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1394</t>
+          <t>1445</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2929</t>
+          <t>3034</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1766,12 +1766,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>619; 3222</t>
+          <t>748; 3128</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4740; 29743</t>
+          <t>4338; 30743</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1781,12 +1781,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>583; 2907</t>
+          <t>612; 2841</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>175; 16888</t>
+          <t>181; 15661</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1796,12 +1796,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1630; 4817</t>
+          <t>1756; 4947</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6790; 37271</t>
+          <t>7643; 35079</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1840</t>
+          <t>1834</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2991</t>
+          <t>2846</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4831</t>
+          <t>4680</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1929,12 +1929,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>862; 3454</t>
+          <t>899; 3353</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6607; 27839</t>
+          <t>6093; 27756</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1944,12 +1944,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1655; 4864</t>
+          <t>1727; 4396</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15097; 193731</t>
+          <t>15671; 196015</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3138; 6953</t>
+          <t>3168; 6883</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>27562; 252474</t>
+          <t>27058; 246495</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2551</t>
+          <t>2792</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3663</t>
+          <t>3725</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6215</t>
+          <t>6516</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -2092,12 +2092,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1304; 4333</t>
+          <t>1519; 4988</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7839; 22546</t>
+          <t>7841; 23725</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -2107,12 +2107,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2309; 5685</t>
+          <t>2412; 5751</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>13737; 27392</t>
+          <t>13668; 28926</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -2122,12 +2122,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4308; 8802</t>
+          <t>4544; 8891</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>24756; 46569</t>
+          <t>24620; 45047</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5337</t>
+          <t>5230</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8414</t>
+          <t>7910</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>13751</t>
+          <t>13140</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -2255,12 +2255,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3595; 7685</t>
+          <t>3570; 7601</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4484; 29965</t>
+          <t>4019; 30959</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2270,12 +2270,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6121; 11502</t>
+          <t>5648; 10839</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>17043; 31478</t>
+          <t>17012; 31372</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -2285,12 +2285,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10860; 17398</t>
+          <t>10513; 16084</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>18902; 58276</t>
+          <t>19308; 58512</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3598</t>
+          <t>3492</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5912</t>
+          <t>5903</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2395,7 +2395,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9510</t>
+          <t>9395</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2418,12 +2418,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2140; 5633</t>
+          <t>2137; 5505</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1434; 8901</t>
+          <t>1628; 9201</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -2433,12 +2433,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3991; 8356</t>
+          <t>4059; 8535</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>10702; 23382</t>
+          <t>10770; 22930</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -2448,12 +2448,12 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>6921; 12452</t>
+          <t>7123; 12927</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>13968; 28146</t>
+          <t>13875; 27680</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>4658</t>
+          <t>4180</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>4575</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>9232</t>
+          <t>8553</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2581,12 +2581,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>3032; 6795</t>
+          <t>2593; 5848</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2543; 10220</t>
+          <t>2650; 11055</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -2596,12 +2596,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3093; 6892</t>
+          <t>2957; 6410</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3246; 23606</t>
+          <t>2737; 24274</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -2611,12 +2611,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>7088; 12368</t>
+          <t>6385; 10927</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>5398; 28234</t>
+          <t>6326; 29032</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -2691,7 +2691,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2519</t>
+          <t>2982</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>4337</t>
+          <t>5182</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>6856</t>
+          <t>8164</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2744,12 +2744,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1485; 4040</t>
+          <t>1798; 4603</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1196; 7077</t>
+          <t>1198; 6669</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2835; 6707</t>
+          <t>3533; 7403</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>5471; 13874</t>
+          <t>5351; 13741</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -2774,12 +2774,12 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>4920; 9539</t>
+          <t>6068; 11137</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>7524; 17631</t>
+          <t>7301; 17535</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
@@ -2854,7 +2854,7 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>22038</t>
+          <t>22098</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -2869,7 +2869,7 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>31286</t>
+          <t>31385</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>53324</t>
+          <t>53483</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -2907,12 +2907,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>17958; 26082</t>
+          <t>18265; 26414</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>42196; 92100</t>
+          <t>45877; 95111</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -2922,12 +2922,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>26540; 36773</t>
+          <t>26437; 36637</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>93606; 387848</t>
+          <t>92357; 381578</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -2937,12 +2937,12 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>47313; 60407</t>
+          <t>47273; 59667</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>156701; 475281</t>
+          <t>156818; 454657</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">

--- a/data/trans_dic/CONS_ALER-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_ALER-Edad-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -633,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>4,49%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7,84%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>2,07%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>5,45%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>7,84%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>2,47%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>8,69%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>2,18%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>2,06%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>8,69%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>3,53%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>8,27%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>2,12%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>3,96%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>8,27%</t>
         </is>
       </c>
     </row>
@@ -686,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>1,5; 10,68</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>5,1; 11,94</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>0,97; 4,07</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>1,84; 13,01</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>5,1; 11,94</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>0,6; 7,23</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5,5; 12,63</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>0,92; 4,29</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0,1; 8,5</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>5,5; 12,63</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>1,62; 6,76</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>6,05; 10,99</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>1,23; 3,46</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>1,82; 8,34</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>6,05; 10,99</t>
         </is>
       </c>
     </row>
@@ -743,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>5,0%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6,65%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>2,45%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>5,51%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>6,65%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>6,3%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>6,57%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>4,18%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>26,76%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>6,57%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>5,68%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>6,61%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>3,27%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>17,8%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>6,61%</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>2,5; 9,48</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>4,14; 10,36</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>1,2; 4,47</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>2,66; 12,1</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>4,14; 10,36</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>3,61; 10,16</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>4,1; 9,95</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>2,54; 6,46</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>4,98; 62,34</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>4,1; 9,95</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>3,59; 8,17</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>4,95; 9,12</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>2,21; 4,81</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>4,98; 45,33</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>4,95; 9,12</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>4,75%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>6,13%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>2,69%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,66%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>6,13%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>5,91%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5,54%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>3,36%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>6,09%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>5,54%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>5,34%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>5,84%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>3,04%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>5,39%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>5,84%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>2,75; 7,7</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3,96; 9,3</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>1,46; 4,8</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>2,52; 7,63</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>3,96; 9,3</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>4,2; 8,47</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>3,68; 8,9</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>2,18; 5,19</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>4,24; 8,97</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>3,68; 8,9</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>3,93; 7,09</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>4,29; 7,75</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>2,12; 4,14</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>3,89; 7,11</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>4,29; 7,75</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>4,26%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2,4%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>3,61%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,51%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,4%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>6,24%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>6,73%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>5,19%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>5,83%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>6,73%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>5,27%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4,5%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>4,42%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>3,81%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>4,5%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>2,54; 6,73</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1,26; 4,22</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>2,47; 5,25</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,64; 4,94</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>1,26; 4,22</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>4,58; 8,18</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>4,38; 9,51</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>3,7; 7,11</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>4,2; 7,75</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>4,38; 9,51</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>4,1; 6,99</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>3,21; 5,97</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>3,54; 5,41</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>1,87; 5,67</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>3,21; 5,97</t>
         </is>
       </c>
     </row>
@@ -1073,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>1,45%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,62%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>2,69%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,22%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,62%</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>4,96%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7,81%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>3,89%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>5,03%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>7,81%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>3,19%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5,32%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>3,34%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>3,07%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>5,32%</t>
         </is>
       </c>
     </row>
@@ -1126,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>0,57; 3,18</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1,33; 4,79</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>1,65; 4,25</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,48; 2,71</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>1,33; 4,79</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>3,35; 7,15</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>5,54; 10,64</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>2,67; 5,62</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>3,38; 7,19</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>5,54; 10,64</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>2,24; 4,42</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>3,76; 6,91</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>2,53; 4,59</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>2,11; 4,21</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>3,76; 6,91</t>
         </is>
       </c>
     </row>
@@ -1183,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>2,77%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3,78%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>4,0%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>2,79%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>5,0%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>4,41%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>3,78%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>3,78%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>2,57%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>4,41%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>3,98%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>4,1%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>3,88%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>2,64%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>4,1%</t>
         </is>
       </c>
     </row>
@@ -1236,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>1,26; 5,45</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2,39; 5,68</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>2,48; 5,6</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>1,27; 5,31</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>2,39; 5,68</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>3,31; 7,52</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2,89; 6,54</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>2,55; 5,54</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0,6; 5,36</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>2,89; 6,54</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>2,71; 5,58</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>3,1; 5,39</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>2,9; 4,96</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>0,96; 4,39</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>3,1; 5,39</t>
         </is>
       </c>
     </row>
@@ -1293,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>2,06%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3,33%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>3,34%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>2,02%</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>3,33%</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>3,96%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>5,22%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>3,92%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>3,81%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>5,22%</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>3,22%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>4,45%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>3,69%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>3,1%</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>4,45%</t>
         </is>
       </c>
     </row>
@@ -1346,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0,81; 4,52</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2,11; 5,61</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>2,01; 5,16</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>0,79; 4,41</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>2,11; 5,61</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>2,38; 5,99</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>3,44; 7,57</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>2,67; 5,59</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>2,29; 5,89</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>3,44; 7,57</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>1,98; 4,69</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>3,22; 6,04</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>2,74; 5,03</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>1,9; 4,56</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>3,22; 6,04</t>
         </is>
       </c>
     </row>
@@ -1403,47 +1403,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>3,62%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4,5%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>3,05%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>3,27%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>4,5%</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>5,19%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>6,42%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>3,94%</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>7,52%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>6,42%</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>4,43%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>5,49%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>3,52%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>5,46%</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>5,49%</t>
         </is>
       </c>
     </row>
@@ -1456,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>2,82; 4,66</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3,77; 5,42</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>2,52; 3,65</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>2,18; 4,52</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>3,77; 5,42</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>4,45; 6,1</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>5,45; 7,41</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>3,31; 4,59</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>4,14; 17,1</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>5,45; 7,41</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>3,89; 5,13</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>4,91; 6,17</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>3,11; 3,92</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>3,62; 10,49</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>4,91; 6,17</t>
         </is>
       </c>
     </row>
@@ -1590,47 +1590,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1660,47 +1660,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>16</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>45</t>
         </is>
       </c>
     </row>
@@ -1713,47 +1713,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>10824</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>13344</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>1588</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>12876</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>13344</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>5426</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>14812</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>1445</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>3792</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>14812</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>16250</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>28156</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>3034</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>16668</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>28156</t>
         </is>
       </c>
     </row>
@@ -1766,47 +1766,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>3608; 25775</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>8674; 20316</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>748; 3128</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>4338; 30743</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>8674; 20316</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>1327; 15875</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>9381; 21526</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>612; 2841</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>181; 15661</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>9381; 21526</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>7461; 31156</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>20595; 37420</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>1756; 4947</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>7643; 35079</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>20595; 37420</t>
         </is>
       </c>
     </row>
@@ -1823,47 +1823,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>27</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>43</t>
         </is>
       </c>
     </row>
@@ -1876,47 +1876,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>13099</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>12110</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>1834</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>12646</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>12110</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>17864</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>13896</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>2846</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>84149</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>13896</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>30964</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>26005</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>4680</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>96795</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>26005</t>
         </is>
       </c>
     </row>
@@ -1929,47 +1929,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>6543; 24833</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>7547; 18884</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>899; 3353</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>6093; 27756</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>7547; 18884</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>10232; 28807</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>8669; 21036</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>1727; 4396</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>15671; 196015</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>8669; 21036</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>19566; 44535</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>19474; 35919</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>3168; 6883</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>27058; 246495</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>19474; 35919</t>
         </is>
       </c>
     </row>
@@ -1986,47 +1986,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>22</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>36</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>48</t>
         </is>
       </c>
     </row>
@@ -2039,47 +2039,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>17500</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>15231</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>2792</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>14466</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>15231</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>22077</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>13768</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>3725</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>19661</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>13768</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>39576</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>28999</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>6516</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>34127</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>28999</t>
         </is>
       </c>
     </row>
@@ -2092,47 +2092,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>10131; 28366</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9840; 23098</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>1519; 4988</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>7841; 23725</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>9840; 23098</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>15674; 31613</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>9148; 22125</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>2412; 5751</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>13668; 28926</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>9148; 22125</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>29126; 52610</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>21327; 38497</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>4544; 8891</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>24620; 45047</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>21327; 38497</t>
         </is>
       </c>
     </row>
@@ -2149,47 +2149,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>45</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>75</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>43</t>
         </is>
       </c>
     </row>
@@ -2202,47 +2202,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>18064</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>7120</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>5230</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>15753</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>7120</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>27557</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>18771</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>7910</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>23597</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>18771</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>45622</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>25891</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>13140</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>39350</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>25891</t>
         </is>
       </c>
     </row>
@@ -2255,47 +2255,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>10751; 28527</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3753; 12521</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>3570; 7601</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>4019; 30959</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>3753; 12521</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>20208; 36091</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>12223; 26525</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>5648; 10839</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>17012; 31372</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>12223; 26525</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>35515; 60448</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>18510; 34379</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>10513; 16084</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>19308; 58512</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>18510; 34379</t>
         </is>
       </c>
     </row>
@@ -2312,47 +2312,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>33</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>54</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>45</t>
         </is>
       </c>
     </row>
@@ -2365,47 +2365,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>5343</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>6151</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>3492</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>4148</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>6151</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>17866</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>19839</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>5903</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>16031</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>19839</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>23209</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>25989</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>9395</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>20179</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>25989</t>
         </is>
       </c>
     </row>
@@ -2418,47 +2418,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>2103; 11700</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3130; 11246</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>2137; 5505</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>1628; 9201</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>3130; 11246</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>12058; 25759</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>14076; 27029</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>4059; 8535</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>10770; 22930</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>14076; 27029</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>16348; 32194</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>18371; 33762</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>7123; 12927</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>13875; 27680</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>18371; 33762</t>
         </is>
       </c>
     </row>
@@ -2475,47 +2475,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>57</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>48</t>
         </is>
       </c>
     </row>
@@ -2528,47 +2528,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>6417</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>6962</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>4180</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>5803</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>6962</t>
-        </is>
-      </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
+          <t>13515</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>8313</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
           <t>4373</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>11645</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>8313</t>
-        </is>
-      </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
+          <t>19931</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>15275</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
           <t>8553</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>17449</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>15275</t>
         </is>
       </c>
     </row>
@@ -2581,47 +2581,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
+          <t>2912; 12605</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>4405; 10445</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
           <t>2593; 5848</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>2650; 11055</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>4405; 10445</t>
-        </is>
-      </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
+          <t>8931; 20297</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>5447; 12347</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
           <t>2957; 6410</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>2737; 24274</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>5447; 12347</t>
-        </is>
-      </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
+          <t>13579; 27984</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>11556; 20081</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
           <t>6385; 10927</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>6326; 29032</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>11556; 20081</t>
         </is>
       </c>
     </row>
@@ -2638,29 +2638,29 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
           <t>29</t>
@@ -2668,17 +2668,17 @@
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
           <t>47</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>46</t>
         </is>
       </c>
     </row>
@@ -2691,47 +2691,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>3401</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>4880</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
           <t>2982</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>3048</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>4880</t>
-        </is>
-      </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
+          <t>10152</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>11061</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
           <t>5182</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>8888</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>11061</t>
-        </is>
-      </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
+          <t>13553</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>15941</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
           <t>8164</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>11937</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>15941</t>
         </is>
       </c>
     </row>
@@ -2744,47 +2744,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>1344; 7462</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>3089; 8221</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
           <t>1798; 4603</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>1198; 6669</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>3089; 8221</t>
-        </is>
-      </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
+          <t>6090; 15352</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>7282; 16031</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
           <t>3533; 7403</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>5351; 13741</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>7282; 16031</t>
-        </is>
-      </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
+          <t>8332; 19745</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>11551; 21644</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
           <t>6068; 11137</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>7301; 17535</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>11551; 21644</t>
         </is>
       </c>
     </row>
@@ -2801,47 +2801,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
           <t>131</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>130</t>
-        </is>
-      </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
           <t>181</t>
         </is>
       </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>155</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>188</t>
-        </is>
-      </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
           <t>312</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>220</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>318</t>
         </is>
       </c>
     </row>
@@ -2854,47 +2854,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
+          <t>74649</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>65798</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
           <t>22098</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>68740</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>65798</t>
-        </is>
-      </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
+          <t>114456</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>100458</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
           <t>31385</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>167764</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>100458</t>
-        </is>
-      </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
+          <t>189105</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>166256</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
           <t>53483</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>236505</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>166256</t>
         </is>
       </c>
     </row>
@@ -2907,47 +2907,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
+          <t>58127; 95961</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>55148; 79349</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
           <t>18265; 26414</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>45877; 95111</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>55148; 79349</t>
-        </is>
-      </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
+          <t>98189; 134531</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>85317; 115918</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
           <t>26437; 36637</t>
         </is>
       </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>92357; 381578</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>85317; 115918</t>
-        </is>
-      </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
+          <t>165722; 218913</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>148693; 186762</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
           <t>47273; 59667</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>156818; 454657</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>148693; 186762</t>
         </is>
       </c>
     </row>
